--- a/experiment result/128_0.0_40_zs10_kappa_lp.xlsx
+++ b/experiment result/128_0.0_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0805673104491962</v>
+        <v>0.01559337832188515</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07729691387554655</v>
+        <v>0.01909876511166944</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1029887184016803</v>
+        <v>0.04216679628033403</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09832413758637985</v>
+        <v>0.03895759627246853</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09214852265545644</v>
+        <v>0.03878204888005077</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09824658505733148</v>
+        <v>0.02589664950344332</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1167762842298573</v>
+        <v>0.03167647511087326</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1047028105602852</v>
+        <v>0.03597142921483569</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08377802634672532</v>
+        <v>0.02728110852858765</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09516229106474738</v>
+        <v>0.02600216214836151</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1056365901222672</v>
+        <v>0.03940402564858455</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1206041463584851</v>
+        <v>0.04795279053235952</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.111789846788349</v>
+        <v>0.02737869589952695</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.101486113556671</v>
+        <v>0.02521686932593896</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1209148968105593</v>
+        <v>0.02488787130630016</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1128946807401429</v>
+        <v>0.04041265599870339</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1092380612773432</v>
+        <v>0.038751212231316</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09182639466301289</v>
+        <v>0.01621587724839782</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0913594976733612</v>
+        <v>0.03191151945487477</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1116667414600399</v>
+        <v>0.03559797172960507</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07214451032282439</v>
+        <v>0.011960037498185</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08762513896390803</v>
+        <v>0.02143485456543417</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09156924984345524</v>
+        <v>0.02922891591479265</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05327333099947483</v>
+        <v>0.008951735517466261</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08734708315841121</v>
+        <v>0.01804465132905264</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1114574245430997</v>
+        <v>0.04176778335953035</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1051218427347985</v>
+        <v>0.0390890033875424</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08343935145963204</v>
+        <v>0.03794382245549428</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.09358424193179642</v>
+        <v>0.02270752114763174</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1122666743850641</v>
+        <v>0.0390890033875424</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0403572026397897</v>
+        <v>0.002927113744985153</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08596076308608389</v>
+        <v>0.03572154671493579</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1061534560840139</v>
+        <v>0.047241299649519</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06667889044082853</v>
+        <v>0.02842677867926487</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0999831260118549</v>
+        <v>0.04679235321357313</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1081414700430272</v>
+        <v>0.0366982573996261</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08938886766307608</v>
+        <v>0.02987942746288273</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1015105959393945</v>
+        <v>0.03136092282574943</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09049483907376393</v>
+        <v>0.04085323078875051</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.095010736318295</v>
+        <v>0.02261024216114608</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1154772977683202</v>
+        <v>0.034450352984322</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07119462285717357</v>
+        <v>0.0133500442799782</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09231326714970602</v>
+        <v>0.0368787939593558</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.09248500896011261</v>
+        <v>0.04112056365335079</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.09080990653525847</v>
+        <v>0.04900672770273699</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1021697528887824</v>
+        <v>0.0422875440457764</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1053177873012435</v>
+        <v>0.03528915534423698</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08776519968837661</v>
+        <v>0.02115670303775427</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09831598421228063</v>
+        <v>0.01711040472561826</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08271519745407356</v>
+        <v>0.01360748531005417</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09515198679936356</v>
+        <v>0.06808490210776216</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1083221685039168</v>
+        <v>0.06420094820032426</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06327228478490794</v>
+        <v>0.0140306746926587</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.05948205187309889</v>
+        <v>0.01807539485794922</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.09013572249182354</v>
+        <v>0.04258928968379528</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1077635170648175</v>
+        <v>0.05778315106261921</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.09326168474898179</v>
+        <v>0.03974475691071364</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1069040776734237</v>
+        <v>0.05729096745855582</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08561660980825453</v>
+        <v>0.05021007933865579</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1003892519218713</v>
+        <v>0.03790468261521854</v>
       </c>
     </row>
   </sheetData>
